--- a/fourProbe/foreprobe.xlsx
+++ b/fourProbe/foreprobe.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">T</t>
   </si>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t xml:space="preserve">V_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V_Hs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V_Cs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V_A_Sudarshan</t>
   </si>
 </sst>
 </file>
@@ -135,13 +147,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -156,8 +168,20 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -178,11 +202,24 @@
         <f aca="false">ROUND(D2,1)</f>
         <v>99.7</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <f aca="false">A2+273</f>
         <v>303</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <f aca="false">(K2+L2)*10/2</f>
         <v>93</v>
       </c>
     </row>
@@ -204,12 +241,25 @@
         <f aca="false">ROUND(D3,1)</f>
         <v>76.2</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <f aca="false">A3+273</f>
         <v>308</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>93</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <f aca="false">(K3+L3)*10/2</f>
+        <v>92.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -230,12 +280,25 @@
         <f aca="false">ROUND(D4,1)</f>
         <v>71.3</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <f aca="false">A4+273</f>
         <v>313</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>92.5</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <f aca="false">(K4+L4)*10/2</f>
+        <v>87.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -256,12 +319,25 @@
         <f aca="false">ROUND(D5,1)</f>
         <v>57.7</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <f aca="false">A5+273</f>
         <v>318</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>91</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <f aca="false">(K5+L5)*10/2</f>
+        <v>77</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -282,12 +358,25 @@
         <f aca="false">ROUND(D6,1)</f>
         <v>47.8</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <f aca="false">A6+273</f>
         <v>323</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>87.5</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <f aca="false">(K6+L6)*10/2</f>
+        <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -308,12 +397,25 @@
         <f aca="false">ROUND(D7,1)</f>
         <v>40</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <f aca="false">A7+273</f>
         <v>328</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>82.5</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <f aca="false">(K7+L7)*10/2</f>
+        <v>57.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -334,12 +436,25 @@
         <f aca="false">ROUND(D8,1)</f>
         <v>33.6</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <f aca="false">A8+273</f>
         <v>333</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>77</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <f aca="false">(K8+L8)*10/2</f>
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -360,12 +475,25 @@
         <f aca="false">ROUND(D9,1)</f>
         <v>28.5</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <f aca="false">A9+273</f>
         <v>338</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>70.5</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <f aca="false">(K9+L9)*10/2</f>
+        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -386,12 +514,25 @@
         <f aca="false">ROUND(D10,1)</f>
         <v>24.3</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <f aca="false">A10+273</f>
         <v>343</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <f aca="false">(K10+L10)*10/2</f>
+        <v>38.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -412,12 +553,25 @@
         <f aca="false">ROUND(D11,1)</f>
         <v>20.8</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <f aca="false">A11+273</f>
         <v>348</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>57.5</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <f aca="false">(K11+L11)*10/2</f>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -438,12 +592,25 @@
         <f aca="false">ROUND(D12,1)</f>
         <v>17.9</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <f aca="false">A12+273</f>
         <v>353</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <f aca="false">(K12+L12)*10/2</f>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -464,12 +631,25 @@
         <f aca="false">ROUND(D13,1)</f>
         <v>15.4</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <f aca="false">A13+273</f>
         <v>358</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <f aca="false">(K13+L13)*10/2</f>
+        <v>24.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -490,12 +670,25 @@
         <f aca="false">ROUND(D14,1)</f>
         <v>13.3</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <f aca="false">A14+273</f>
         <v>363</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <v>38.5</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <f aca="false">(K14+L14)*10/2</f>
+        <v>21.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,12 +709,25 @@
         <f aca="false">ROUND(D15,1)</f>
         <v>11.5</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <f aca="false">A15+273</f>
         <v>368</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <f aca="false">(K15+L15)*10/2</f>
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -542,12 +748,25 @@
         <f aca="false">ROUND(D16,1)</f>
         <v>10</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <f aca="false">A16+273</f>
         <v>373</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <f aca="false">(K16+L16)*10/2</f>
+        <v>15.5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -569,12 +788,25 @@
         <f aca="false">ROUND(D17,1)</f>
         <v>8.8</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="1" t="n">
         <f aca="false">A17+273</f>
         <v>378</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <f aca="false">(K17+L17)*10/2</f>
+        <v>13</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,12 +827,25 @@
         <f aca="false">ROUND(D18,1)</f>
         <v>7.6</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="1" t="n">
         <f aca="false">A18+273</f>
         <v>383</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>21.5</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <f aca="false">(K18+L18)*10/2</f>
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,12 +866,25 @@
         <f aca="false">ROUND(D19,1)</f>
         <v>6.6</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
         <f aca="false">A19+273</f>
         <v>388</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <f aca="false">(K19+L19)*10/2</f>
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -647,12 +905,25 @@
         <f aca="false">ROUND(D20,1)</f>
         <v>5.8</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="1" t="n">
         <f aca="false">A20+273</f>
         <v>393</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <v>15.5</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <f aca="false">(K20+L20)*10/2</f>
+        <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,12 +944,85 @@
         <f aca="false">ROUND(D21,1)</f>
         <v>5</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="1" t="n">
         <f aca="false">A21+273</f>
         <v>398</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <f aca="false">(K21+L21)*10/2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J22" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <f aca="false">(K22+L22)*10/2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J23" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <f aca="false">(K23+L23)*10/2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J24" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <f aca="false">(K24+L24)*10/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J25" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <f aca="false">(K25+L25)*10/2</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
